--- a/notebooks/test_output/detailed_metrics_summary.xlsx
+++ b/notebooks/test_output/detailed_metrics_summary.xlsx
@@ -482,22 +482,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7722222222222223</v>
+        <v>0.85</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7935071782369786</v>
+        <v>0.8695478191276512</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7722222222222223</v>
+        <v>0.85</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7769382606843906</v>
+        <v>0.8525954413238097</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7722222222222223</v>
+        <v>0.85</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01883980550868128</v>
+        <v>0.05076574134026962</v>
       </c>
       <c r="H2" t="n">
         <v>360</v>

--- a/notebooks/test_output/detailed_metrics_summary.xlsx
+++ b/notebooks/test_output/detailed_metrics_summary.xlsx
@@ -482,22 +482,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.85</v>
+        <v>0.8861111111111111</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8695478191276512</v>
+        <v>0.8940239384148339</v>
       </c>
       <c r="D2" t="n">
-        <v>0.85</v>
+        <v>0.8861111111111111</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8525954413238097</v>
+        <v>0.8869630706968264</v>
       </c>
       <c r="F2" t="n">
-        <v>0.85</v>
+        <v>0.8861111111111111</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05076574134026962</v>
+        <v>0.02222222222222223</v>
       </c>
       <c r="H2" t="n">
         <v>360</v>

--- a/notebooks/test_output/detailed_metrics_summary.xlsx
+++ b/notebooks/test_output/detailed_metrics_summary.xlsx
@@ -482,22 +482,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8861111111111111</v>
+        <v>0.8944444444444445</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8940239384148339</v>
+        <v>0.9010780999359778</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8861111111111111</v>
+        <v>0.8944444444444445</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8869630706968264</v>
+        <v>0.8945837444289457</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8861111111111111</v>
+        <v>0.8944444444444445</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02222222222222223</v>
+        <v>0.02576005137637695</v>
       </c>
       <c r="H2" t="n">
         <v>360</v>
